--- a/ResultadoEleicoesDistritos/AVEIRO_ALBERGARIA-A-VELHA.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_ALBERGARIA-A-VELHA.xlsx
@@ -597,64 +597,64 @@
         <v>6734</v>
       </c>
       <c r="H2" t="n">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I2" t="n">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="J2" t="n">
-        <v>2726</v>
+        <v>2823</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="n">
-        <v>722</v>
+        <v>794</v>
       </c>
       <c r="M2" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N2" t="n">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>35</v>
+      </c>
+      <c r="S2" t="n">
+        <v>294</v>
+      </c>
+      <c r="T2" t="n">
+        <v>461</v>
+      </c>
+      <c r="U2" t="n">
+        <v>21</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4264</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>44</v>
-      </c>
-      <c r="S2" t="n">
-        <v>312</v>
-      </c>
-      <c r="T2" t="n">
-        <v>495</v>
-      </c>
-      <c r="U2" t="n">
-        <v>36</v>
-      </c>
-      <c r="V2" t="n">
-        <v>4314</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>4380</v>
+        <v>4296</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="AA2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
